--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Capstone_3\Rencita_Capstone_3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7062C84-7A88-4332-AE0F-70A561073145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB18158D-D05B-445B-8F78-D0605B283B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Brasov,Bucuresti,Koln,Moscow,Berlin</t>
+  </si>
+  <si>
+    <t>InvalidCredentials</t>
+  </si>
+  <si>
+    <t>Username and password is incorrect</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1689,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1936,7 +1942,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
